--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AD/15/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AD/15/seed5/result_data_RandomForest.xlsx
@@ -592,12 +592,12 @@
         <v>-10.8</v>
       </c>
       <c r="D11" t="n">
-        <v>-7.628399999999991</v>
+        <v>-7.733999999999993</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.4337</v>
+        <v>-21.40049999999998</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -760,7 +760,7 @@
         <v>-12.89</v>
       </c>
       <c r="D23" t="n">
-        <v>-8.427599999999998</v>
+        <v>-8.408999999999999</v>
       </c>
     </row>
     <row r="24">
@@ -807,7 +807,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.85719999999999</v>
+        <v>-21.9648</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -830,7 +830,7 @@
         <v>-11.8</v>
       </c>
       <c r="D28" t="n">
-        <v>-8.174199999999997</v>
+        <v>-8.200599999999994</v>
       </c>
     </row>
     <row r="29">
@@ -877,7 +877,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.48960000000001</v>
+        <v>-21.53910000000001</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -886,7 +886,7 @@
         <v>-10.55</v>
       </c>
       <c r="D32" t="n">
-        <v>-7.019599999999992</v>
+        <v>-7.037699999999993</v>
       </c>
     </row>
     <row r="33">
@@ -914,7 +914,7 @@
         <v>-11.49</v>
       </c>
       <c r="D34" t="n">
-        <v>-8.313199999999998</v>
+        <v>-8.130200000000004</v>
       </c>
     </row>
     <row r="35">
@@ -933,7 +933,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-20.0893</v>
+        <v>-19.7687</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -961,7 +961,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-19.78989999999998</v>
+        <v>-19.48439999999998</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
@@ -1026,7 +1026,7 @@
         <v>-13.45</v>
       </c>
       <c r="D42" t="n">
-        <v>-8.878399999999994</v>
+        <v>-8.914899999999996</v>
       </c>
     </row>
     <row r="43">
@@ -1073,7 +1073,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.97790000000002</v>
+        <v>-21.9179</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1124,7 +1124,7 @@
         <v>-12.11</v>
       </c>
       <c r="D49" t="n">
-        <v>-8.058300000000001</v>
+        <v>-8.162400000000007</v>
       </c>
     </row>
     <row r="50">
@@ -1185,7 +1185,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.87590000000001</v>
+        <v>-21.8943</v>
       </c>
       <c r="B54" t="n">
         <v>6.01</v>
@@ -1194,12 +1194,12 @@
         <v>-13.87</v>
       </c>
       <c r="D54" t="n">
-        <v>-7.923899999999993</v>
+        <v>-7.795699999999996</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.14390000000001</v>
+        <v>-22.3004</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1213,7 +1213,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-22.02139999999999</v>
+        <v>-22.13800000000001</v>
       </c>
       <c r="B56" t="n">
         <v>4.42</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.40889999999997</v>
+        <v>-21.45219999999997</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.47479999999998</v>
+        <v>-21.50349999999998</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-21.8205</v>
+        <v>-21.7871</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1530,7 +1530,7 @@
         <v>-13.33</v>
       </c>
       <c r="D78" t="n">
-        <v>-8.074700000000002</v>
+        <v>-8.072199999999999</v>
       </c>
     </row>
     <row r="79">
@@ -1558,7 +1558,7 @@
         <v>-12.35</v>
       </c>
       <c r="D80" t="n">
-        <v>-8.004300000000002</v>
+        <v>-7.874999999999996</v>
       </c>
     </row>
     <row r="81">
@@ -1591,7 +1591,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.66869999999998</v>
+        <v>-21.63489999999998</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1633,7 +1633,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-21.9345</v>
+        <v>-21.88890000000001</v>
       </c>
       <c r="B86" t="n">
         <v>4.69</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-20.36839999999997</v>
+        <v>-20.38419999999998</v>
       </c>
       <c r="B91" t="n">
         <v>7.49</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.37620000000001</v>
+        <v>-21.45870000000001</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
@@ -1796,7 +1796,7 @@
         <v>-10.47</v>
       </c>
       <c r="D97" t="n">
-        <v>-8.159599999999998</v>
+        <v>-8.460299999999991</v>
       </c>
     </row>
     <row r="98">
@@ -1815,7 +1815,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-21.8497</v>
+        <v>-21.83610000000001</v>
       </c>
       <c r="B99" t="n">
         <v>5.08</v>
@@ -1824,7 +1824,7 @@
         <v>-13.93</v>
       </c>
       <c r="D99" t="n">
-        <v>-7.944099999999995</v>
+        <v>-7.659499999999996</v>
       </c>
     </row>
     <row r="100">
@@ -1852,7 +1852,7 @@
         <v>-15.77</v>
       </c>
       <c r="D101" t="n">
-        <v>-8.057899999999998</v>
+        <v>-7.941599999999991</v>
       </c>
     </row>
     <row r="102">
@@ -1885,7 +1885,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-21.45099999999999</v>
+        <v>-21.5086</v>
       </c>
       <c r="B104" t="n">
         <v>7.61</v>
